--- a/exceltocsv/public/reports/employee dtr/Gatan,"Mario Haris, Jr".xlsx
+++ b/exceltocsv/public/reports/employee dtr/Gatan,"Mario Haris, Jr".xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
+  </si>
+  <si>
+    <t>TOTAL TARDINESS</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -662,20 +665,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="0" t="str">
-        <f>SUM(F5:F19)</f>
+      <c r="B19" s="5" t="str">
+        <f>COUNT(F5:F19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>SUM(F5:F18)</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Gatan,"Mario Haris, Jr".xlsx
+++ b/exceltocsv/public/reports/employee dtr/Gatan,"Mario Haris, Jr".xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -168,7 +168,40 @@
     <t>NUMBER OF TIMES TARDY</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>TOTAL TARDINESS</t>
+  </si>
+  <si>
+    <t>TOTAL OT HOURS</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>ACCUMULATED OT</t>
+  </si>
+  <si>
+    <t>LATES</t>
+  </si>
+  <si>
+    <t>ACCUMULATED VL</t>
+  </si>
+  <si>
+    <t>ACCUMULATED SL</t>
+  </si>
+  <si>
+    <t>VL BALANCE</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -285,7 +318,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -301,6 +334,11 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.834831460674156"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="133.98988764044944"/>
+    <col min="11" max="11" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.189887640449439" hidden="true"/>
+    <col min="13" max="13" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="14" max="14" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="15" max="15" bestFit="false" customWidth="false" hidden="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -387,9 +425,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
@@ -457,9 +493,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="n">
         <v>0.5</v>
@@ -483,9 +517,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
@@ -507,9 +539,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="n">
         <v>0.5</v>
@@ -529,9 +559,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
@@ -549,9 +577,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
@@ -569,9 +595,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
@@ -589,9 +613,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
@@ -615,9 +637,7 @@
       <c r="F16" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
@@ -635,9 +655,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
@@ -655,9 +673,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -668,26 +684,461 @@
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="5" t="str">
-        <f>COUNT(F5:F19)</f>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>COUNT(F5:F18)</f>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="5" t="str">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5" t="str">
         <f>SUM(F5:F18)</f>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>SUM(G5:G18)</f>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>SUM(I5:I18)</f>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>INT(LEFT(B25,1))</f>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>RIGHT(B25,LEN(B25)-2)</f>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>INT(LEFT(L24,1))</f>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>RIGHT(L24,LEN(L24)-2)+0</f>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f>K24*8*60+M24*60+N24</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>INT(LEFT(B26,1))</f>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>RIGHT(B26,LEN(B26)-2)</f>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>INT(LEFT(L25,1))</f>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>RIGHT(L25,LEN(L25)-2)+0</f>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f>K25*8*60+M25*60+N25</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>INT(LEFT(B27,1))</f>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>RIGHT(B27,LEN(B27)-2)</f>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>INT(LEFT(L26,1))</f>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>K26*8*60+M26*60+N26</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>INT(LEFT(B28,1))</f>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>RIGHT(B28,LEN(B28)-2)</f>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>INT(LEFT(L27,1))</f>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>RIGHT(L27,LEN(L27)-2)+0</f>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>K27*8*60+M27*60+N27</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>INT(LEFT(B29,1))</f>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>RIGHT(B29,LEN(B29)-2)</f>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>INT(LEFT(L28,1))</f>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(L28,LEN(L28)-2)+0</f>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>K28*8*60+M28*60+N28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>O29/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Gatan,"Mario Haris, Jr".xlsx
+++ b/exceltocsv/public/reports/employee dtr/Gatan,"Mario Haris, Jr".xlsx
@@ -195,7 +195,7 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
@@ -799,10 +799,10 @@
         <v>51</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>SUM(H5:H18)</f>
+        <f>SUM(H5:H15)</f>
       </c>
       <c r="I22" s="5" t="str">
-        <f>SUM(I5:I18)</f>
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J22" s="5" t="s">
         <v>51</v>
